--- a/Framework/templates/Case.xlsx
+++ b/Framework/templates/Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/sarathvaragani_deloitte_co_uk/Documents/Desktop/YH/YH-TS1/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/sarathvaragani_deloitte_co_uk/Documents/Desktop/ProvarFramework/Framework/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="8_{6928568C-5B4D-2240-B038-9A714FBA56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DA6F436-7199-3D42-9036-88C610118081}"/>
   <bookViews>
-    <workbookView xWindow="37420" yWindow="-2000" windowWidth="27640" windowHeight="15960" xr2:uid="{DB7A14CC-E2E1-4147-B583-ECAEE7D336D0}"/>
+    <workbookView xWindow="78100" yWindow="2460" windowWidth="27640" windowHeight="15960" xr2:uid="{DB7A14CC-E2E1-4147-B583-ECAEE7D336D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
